--- a/000.커리큐럼/프로젝트관리/FED_PJ_2022_리뷰체크.xlsx
+++ b/000.커리큐럼/프로젝트관리/FED_PJ_2022_리뷰체크.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\프로젝트관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="55">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,7 +222,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1차PJ 리뷰 및 팀플 iframe 프리로드관련 리뷰</t>
+    <t>1차PJ 진행상황 및 남은 부분확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 진행상황체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃허브 소스
+연결확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 진행상황체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 진행상황체크
+A-Z문자채우기
+피드백주기로함!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차PJ 리뷰 및 팀플 iframe 프리로드관련 리뷰, 피드백약속</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,12 +317,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,9 +580,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,22 +598,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -891,8 +905,8 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -906,9 +920,10 @@
     <col min="7" max="7" width="11.625" style="13" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="18" customWidth="1"/>
-    <col min="11" max="16" width="11.625" style="29" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="11.625" style="28" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="6" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -939,28 +954,28 @@
       <c r="I1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -990,31 +1005,31 @@
       <c r="H2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="31" t="s">
+      <c r="J2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1035,14 +1050,14 @@
       <c r="I3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="32"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="31"/>
     </row>
     <row r="4" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1073,28 +1088,28 @@
       <c r="I4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="33" t="s">
+      <c r="J4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1113,14 +1128,14 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="32"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -1131,7 +1146,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>22</v>
@@ -1151,28 +1166,28 @@
       <c r="I6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="33" t="s">
+      <c r="J6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1191,14 +1206,16 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="32"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1229,28 +1246,28 @@
       <c r="I8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="33" t="s">
+      <c r="J8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1269,14 +1286,14 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="32"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -1307,28 +1324,28 @@
       <c r="I10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="33" t="s">
+      <c r="J10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1347,14 +1364,14 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="32"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1385,28 +1402,28 @@
       <c r="I12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="33" t="s">
+      <c r="J12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1425,14 +1442,14 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="32"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -1463,28 +1480,28 @@
       <c r="I14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="33" t="s">
+      <c r="J14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1505,14 +1522,14 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="32"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1543,28 +1560,28 @@
       <c r="I16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="33" t="s">
+      <c r="J16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1583,14 +1600,14 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="32"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -1621,28 +1638,28 @@
       <c r="I18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="33" t="s">
+      <c r="J18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1661,14 +1678,14 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="32"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1699,28 +1716,28 @@
       <c r="I20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="33" t="s">
+      <c r="J20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1739,14 +1756,14 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="32"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -1777,28 +1794,28 @@
       <c r="I22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="33" t="s">
+      <c r="J22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1817,14 +1834,14 @@
         <v>37</v>
       </c>
       <c r="I23" s="15"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="32"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1855,28 +1872,28 @@
       <c r="I24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="33" t="s">
+      <c r="J24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1895,14 +1912,14 @@
         <v>38</v>
       </c>
       <c r="I25" s="15"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="32"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="31"/>
     </row>
     <row r="26" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1933,28 +1950,28 @@
       <c r="I26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="33" t="s">
+      <c r="J26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1973,14 +1990,14 @@
       <c r="I27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="32"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2011,28 +2028,28 @@
       <c r="I28" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" s="33" t="s">
+      <c r="K28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2049,16 +2066,16 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="32"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="31"/>
     </row>
     <row r="30" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -2069,7 +2086,7 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>21</v>
@@ -2089,28 +2106,28 @@
       <c r="I30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="33" t="s">
+      <c r="J30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2127,14 +2144,16 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="32"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="31"/>
     </row>
     <row r="32" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -2165,32 +2184,32 @@
       <c r="I32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q32" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+      <c r="K32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8">
@@ -2203,16 +2222,16 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="32"/>
+      <c r="J33" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -2223,7 +2242,7 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>21</v>
@@ -2243,28 +2262,28 @@
       <c r="I34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q34" s="33" t="s">
+      <c r="J34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2281,14 +2300,16 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="32"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -2299,7 +2320,7 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>21</v>
@@ -2319,32 +2340,32 @@
       <c r="I36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="36" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="8">
@@ -2357,14 +2378,16 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="32"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="31"/>
     </row>
     <row r="38" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -2375,7 +2398,7 @@
       </c>
       <c r="C38" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>21</v>
@@ -2395,28 +2418,28 @@
       <c r="I38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="33" t="s">
+      <c r="J38" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2433,20 +2456,22 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="32"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="31"/>
     </row>
     <row r="40" spans="1:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="11"/>
       <c r="D40" s="17">
         <f t="shared" ref="D40:I40" si="1">COUNTIF(D2:D38,"○")</f>
@@ -2472,35 +2497,35 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="17">
         <f t="shared" ref="J40:O40" si="2">COUNTIF(J2:J38,"○")</f>
         <v>2</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="28">
+        <v>5</v>
+      </c>
+      <c r="L40" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M40" s="28">
+      <c r="M40" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="28">
+      <c r="N40" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O40" s="28">
+      <c r="O40" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" s="28">
+      <c r="P40" s="27">
         <f>COUNTIF(P2:P38,"○")</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="34">
+      <c r="Q40" s="33">
         <f>COUNTIF(Q2:Q38,"○")</f>
         <v>0</v>
       </c>

--- a/000.커리큐럼/프로젝트관리/FED_PJ_2022_리뷰체크.xlsx
+++ b/000.커리큐럼/프로젝트관리/FED_PJ_2022_리뷰체크.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="56">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,10 @@
   </si>
   <si>
     <t>1차PJ 리뷰 및 팀플 iframe 프리로드관련 리뷰, 피드백약속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 GNB, 배너 등 리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,8 +909,8 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,8 +925,9 @@
     <col min="8" max="8" width="12.75" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="11.625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="18" customWidth="1"/>
+    <col min="13" max="16" width="11.625" style="28" customWidth="1"/>
     <col min="17" max="17" width="10.375" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -957,10 +962,10 @@
       <c r="J1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="M1" s="23" t="s">
@@ -1011,10 +1016,10 @@
       <c r="J2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="24" t="s">
@@ -1051,8 +1056,8 @@
         <v>40</v>
       </c>
       <c r="J3" s="15"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="25"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
@@ -1091,10 +1096,10 @@
       <c r="J4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="26" t="s">
+      <c r="K4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="26" t="s">
@@ -1129,8 +1134,8 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
@@ -1146,7 +1151,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>22</v>
@@ -1169,11 +1174,11 @@
       <c r="J6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="26" t="s">
-        <v>21</v>
+      <c r="L6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="M6" s="26" t="s">
         <v>21</v>
@@ -1207,10 +1212,12 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -1249,10 +1256,10 @@
       <c r="J8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="26" t="s">
+      <c r="K8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="26" t="s">
@@ -1287,8 +1294,8 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="25"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
@@ -1327,10 +1334,10 @@
       <c r="J10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="26" t="s">
+      <c r="K10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="26" t="s">
@@ -1365,8 +1372,8 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -1405,10 +1412,10 @@
       <c r="J12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="26" t="s">
+      <c r="K12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="26" t="s">
@@ -1443,8 +1450,8 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="25"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -1483,10 +1490,10 @@
       <c r="J14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="26" t="s">
+      <c r="K14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="26" t="s">
@@ -1523,8 +1530,8 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="25"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
@@ -1563,10 +1570,10 @@
       <c r="J16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="26" t="s">
+      <c r="K16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="26" t="s">
@@ -1601,8 +1608,8 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="25"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -1641,10 +1648,10 @@
       <c r="J18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="26" t="s">
+      <c r="K18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M18" s="26" t="s">
@@ -1679,8 +1686,8 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="25"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
@@ -1719,10 +1726,10 @@
       <c r="J20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="26" t="s">
+      <c r="K20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="26" t="s">
@@ -1757,8 +1764,8 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="25"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
@@ -1797,10 +1804,10 @@
       <c r="J22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="26" t="s">
+      <c r="K22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="26" t="s">
@@ -1835,8 +1842,8 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="25"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -1875,10 +1882,10 @@
       <c r="J24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="26" t="s">
+      <c r="K24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M24" s="26" t="s">
@@ -1913,8 +1920,8 @@
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="25"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
@@ -1953,10 +1960,10 @@
       <c r="J26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="26" t="s">
+      <c r="K26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M26" s="26" t="s">
@@ -1991,8 +1998,8 @@
         <v>39</v>
       </c>
       <c r="J27" s="15"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="25"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
@@ -2031,10 +2038,10 @@
       <c r="J28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="26" t="s">
+      <c r="K28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M28" s="26" t="s">
@@ -2069,8 +2076,8 @@
       <c r="J29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="25"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="21"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -2109,10 +2116,10 @@
       <c r="J30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="26" t="s">
+      <c r="L30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="26" t="s">
@@ -2145,10 +2152,10 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="21" t="s">
+      <c r="K31" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="L31" s="25"/>
+      <c r="L31" s="21"/>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
@@ -2187,10 +2194,10 @@
       <c r="J32" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="26" t="s">
+      <c r="K32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M32" s="26" t="s">
@@ -2225,8 +2232,8 @@
       <c r="J33" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="25"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="21"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
@@ -2265,10 +2272,10 @@
       <c r="J34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="L34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M34" s="26" t="s">
@@ -2301,10 +2308,10 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L35" s="25"/>
+      <c r="L35" s="21"/>
       <c r="M35" s="25"/>
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
@@ -2343,10 +2350,10 @@
       <c r="J36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="26" t="s">
+      <c r="L36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M36" s="26" t="s">
@@ -2379,10 +2386,10 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="25"/>
+      <c r="L37" s="21"/>
       <c r="M37" s="25"/>
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
@@ -2421,10 +2428,10 @@
       <c r="J38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M38" s="26" t="s">
@@ -2457,10 +2464,10 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="21" t="s">
+      <c r="K39" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L39" s="25"/>
+      <c r="L39" s="21"/>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
@@ -2501,13 +2508,13 @@
         <f t="shared" ref="J40:O40" si="2">COUNTIF(J2:J38,"○")</f>
         <v>2</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="27">
         <f t="shared" si="2"/>
